--- a/test_cricket.xlsx
+++ b/test_cricket.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skaws\Downloads\module_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suman Biswas\Online Training\EMK\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C14C62-4F55-4E8D-BBC0-95AEEDFEE9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28545" yWindow="225" windowWidth="26355" windowHeight="14475" activeTab="1" xr2:uid="{03ACF06B-1568-43D4-9A5D-7EEFF68117B1}"/>
+    <workbookView xWindow="-28545" yWindow="225" windowWidth="26355" windowHeight="14475" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="1" r:id="rId1"/>
     <sheet name="wickets" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="487">
   <si>
     <t>Player</t>
   </si>
@@ -1253,12 +1252,255 @@
   </si>
   <si>
     <t>9/105</t>
+  </si>
+  <si>
+    <t>9/51</t>
+  </si>
+  <si>
+    <t>8/71</t>
+  </si>
+  <si>
+    <t>7/42</t>
+  </si>
+  <si>
+    <t>10/74</t>
+  </si>
+  <si>
+    <t>8/24</t>
+  </si>
+  <si>
+    <t>8/15</t>
+  </si>
+  <si>
+    <t>7/37</t>
+  </si>
+  <si>
+    <t>7/51</t>
+  </si>
+  <si>
+    <t>9/83</t>
+  </si>
+  <si>
+    <t>9/52</t>
+  </si>
+  <si>
+    <t>7/87</t>
+  </si>
+  <si>
+    <t>8/84</t>
+  </si>
+  <si>
+    <t>7/59</t>
+  </si>
+  <si>
+    <t>8/45</t>
+  </si>
+  <si>
+    <t>8/50</t>
+  </si>
+  <si>
+    <t>8/34</t>
+  </si>
+  <si>
+    <t>7/22</t>
+  </si>
+  <si>
+    <t>7/76</t>
+  </si>
+  <si>
+    <t>8/58</t>
+  </si>
+  <si>
+    <t>7/83</t>
+  </si>
+  <si>
+    <t>7/71</t>
+  </si>
+  <si>
+    <t>8/43</t>
+  </si>
+  <si>
+    <t>7/64</t>
+  </si>
+  <si>
+    <t>8/61</t>
+  </si>
+  <si>
+    <t>5/30</t>
+  </si>
+  <si>
+    <t>6/23</t>
+  </si>
+  <si>
+    <t>8/38</t>
+  </si>
+  <si>
+    <t>8/31</t>
+  </si>
+  <si>
+    <t>7/74</t>
+  </si>
+  <si>
+    <t>8/51</t>
+  </si>
+  <si>
+    <t>6/30</t>
+  </si>
+  <si>
+    <t>6/54</t>
+  </si>
+  <si>
+    <t>8/97</t>
+  </si>
+  <si>
+    <t>7/98</t>
+  </si>
+  <si>
+    <t>7/77</t>
+  </si>
+  <si>
+    <t>6/56</t>
+  </si>
+  <si>
+    <t>6/50</t>
+  </si>
+  <si>
+    <t>6/65</t>
+  </si>
+  <si>
+    <t>7/39</t>
+  </si>
+  <si>
+    <t>8/92</t>
+  </si>
+  <si>
+    <t>7/72</t>
+  </si>
+  <si>
+    <t>7/61</t>
+  </si>
+  <si>
+    <t>8/79</t>
+  </si>
+  <si>
+    <t>7/44</t>
+  </si>
+  <si>
+    <t>8/86</t>
+  </si>
+  <si>
+    <t>9/56</t>
+  </si>
+  <si>
+    <t>8/41</t>
+  </si>
+  <si>
+    <t>6/73</t>
+  </si>
+  <si>
+    <t>7/46</t>
+  </si>
+  <si>
+    <t>6/26</t>
+  </si>
+  <si>
+    <t>6/42</t>
+  </si>
+  <si>
+    <t>7/38</t>
+  </si>
+  <si>
+    <t>7/12</t>
+  </si>
+  <si>
+    <t>5/58</t>
+  </si>
+  <si>
+    <t>6/21</t>
+  </si>
+  <si>
+    <t>6/48</t>
+  </si>
+  <si>
+    <t>7/48</t>
+  </si>
+  <si>
+    <t>7/27</t>
+  </si>
+  <si>
+    <t>7/40</t>
+  </si>
+  <si>
+    <t>7/36</t>
+  </si>
+  <si>
+    <t>6/67</t>
+  </si>
+  <si>
+    <t>8/87</t>
+  </si>
+  <si>
+    <t>7/54</t>
+  </si>
+  <si>
+    <t>6/46</t>
+  </si>
+  <si>
+    <t>11/71</t>
+  </si>
+  <si>
+    <t>11/60</t>
+  </si>
+  <si>
+    <t>11/84</t>
+  </si>
+  <si>
+    <t>11/89</t>
+  </si>
+  <si>
+    <t>9/92</t>
+  </si>
+  <si>
+    <t>10/80</t>
+  </si>
+  <si>
+    <t>12/94</t>
+  </si>
+  <si>
+    <t>9/80</t>
+  </si>
+  <si>
+    <t>11/94</t>
+  </si>
+  <si>
+    <t>11/97</t>
+  </si>
+  <si>
+    <t>10/91</t>
+  </si>
+  <si>
+    <t>8/80</t>
+  </si>
+  <si>
+    <t>9/73</t>
+  </si>
+  <si>
+    <t>9/70</t>
+  </si>
+  <si>
+    <t>11/76</t>
+  </si>
+  <si>
+    <t>9/72</t>
+  </si>
+  <si>
+    <t>10/27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1294,12 +1536,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1613,7 +1853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75582B55-96A1-47DE-9745-A0824E0CD37C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5060,10 +5300,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06248AAE-F737-4111-9E49-597F1BF30120}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5133,10 +5375,10 @@
       <c r="G2">
         <v>800</v>
       </c>
-      <c r="H2" s="3">
-        <v>18872</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>223</v>
       </c>
       <c r="J2">
@@ -5177,10 +5419,10 @@
       <c r="G3">
         <v>708</v>
       </c>
-      <c r="H3" s="3">
-        <v>26146</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H3" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>225</v>
       </c>
       <c r="J3">
@@ -5221,11 +5463,11 @@
       <c r="G4">
         <v>619</v>
       </c>
-      <c r="H4" s="3">
-        <v>27303</v>
-      </c>
-      <c r="I4" t="s">
-        <v>228</v>
+      <c r="H4" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="J4">
         <v>29.65</v>
@@ -5265,11 +5507,11 @@
       <c r="G5">
         <v>617</v>
       </c>
-      <c r="H5" s="3">
-        <v>15523</v>
-      </c>
-      <c r="I5" s="3">
-        <v>26238</v>
+      <c r="H5" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="J5">
         <v>26.67</v>
@@ -5309,11 +5551,11 @@
       <c r="G6">
         <v>563</v>
       </c>
-      <c r="H6" s="4">
-        <v>44432</v>
-      </c>
-      <c r="I6" s="4">
-        <v>44496</v>
+      <c r="H6" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>486</v>
       </c>
       <c r="J6">
         <v>21.64</v>
@@ -5353,10 +5595,10 @@
       <c r="G7">
         <v>523</v>
       </c>
-      <c r="H7" s="4">
-        <v>44423</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="H7" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>233</v>
       </c>
       <c r="J7">
@@ -5397,10 +5639,10 @@
       <c r="G8">
         <v>519</v>
       </c>
-      <c r="H8" s="3">
-        <v>13697</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="H8" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>236</v>
       </c>
       <c r="J8">
@@ -5441,11 +5683,11 @@
       <c r="G9">
         <v>439</v>
       </c>
-      <c r="H9" s="3">
-        <v>18810</v>
-      </c>
-      <c r="I9" s="3">
-        <v>22221</v>
+      <c r="H9" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="J9">
         <v>22.95</v>
@@ -5485,10 +5727,10 @@
       <c r="G10">
         <v>434</v>
       </c>
-      <c r="H10" s="3">
-        <v>30560</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="H10" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>238</v>
       </c>
       <c r="J10">
@@ -5529,10 +5771,10 @@
       <c r="G11">
         <v>433</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>242</v>
       </c>
       <c r="J11">
@@ -5573,10 +5815,10 @@
       <c r="G12">
         <v>431</v>
       </c>
-      <c r="H12" s="3">
-        <v>19238</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="H12" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>245</v>
       </c>
       <c r="J12">
@@ -5617,10 +5859,10 @@
       <c r="G13">
         <v>421</v>
       </c>
-      <c r="H13" s="3">
-        <v>31959</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="H13" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>248</v>
       </c>
       <c r="J13">
@@ -5661,10 +5903,10 @@
       <c r="G14">
         <v>417</v>
       </c>
-      <c r="H14" s="3">
-        <v>30895</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="H14" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>251</v>
       </c>
       <c r="J14">
@@ -5705,10 +5947,10 @@
       <c r="G15">
         <v>414</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="1" t="s">
         <v>255</v>
       </c>
       <c r="J15">
@@ -5749,10 +5991,10 @@
       <c r="G16">
         <v>413</v>
       </c>
-      <c r="H16" s="3">
-        <v>21732</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="H16" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>257</v>
       </c>
       <c r="J16">
@@ -5793,11 +6035,11 @@
       <c r="G17">
         <v>405</v>
       </c>
-      <c r="H17" s="3">
-        <v>16650</v>
-      </c>
-      <c r="I17" s="3">
-        <v>30987</v>
+      <c r="H17" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>472</v>
       </c>
       <c r="J17">
         <v>20.99</v>
@@ -5837,10 +6079,10 @@
       <c r="G18">
         <v>399</v>
       </c>
-      <c r="H18" s="3">
-        <v>18476</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="H18" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>261</v>
       </c>
       <c r="J18">
@@ -5881,10 +6123,10 @@
       <c r="G19">
         <v>390</v>
       </c>
-      <c r="H19" s="3">
-        <v>13697</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="H19" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>264</v>
       </c>
       <c r="J19">
@@ -5925,10 +6167,10 @@
       <c r="G20">
         <v>383</v>
       </c>
-      <c r="H20" s="3">
-        <v>12632</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="H20" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>265</v>
       </c>
       <c r="J20">
@@ -5969,11 +6211,11 @@
       <c r="G21">
         <v>376</v>
       </c>
-      <c r="H21" s="4">
-        <v>44399</v>
-      </c>
-      <c r="I21" s="3">
-        <v>32813</v>
+      <c r="H21" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>473</v>
       </c>
       <c r="J21">
         <v>20.94</v>
@@ -6013,10 +6255,10 @@
       <c r="G22">
         <v>373</v>
       </c>
-      <c r="H22" s="3">
-        <v>27942</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="H22" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>270</v>
       </c>
       <c r="J22">
@@ -6057,10 +6299,10 @@
       <c r="G23">
         <v>362</v>
       </c>
-      <c r="H23" s="3">
-        <v>21398</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="H23" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>273</v>
       </c>
       <c r="J23">
@@ -6101,10 +6343,10 @@
       <c r="G24">
         <v>362</v>
       </c>
-      <c r="H24" s="3">
-        <v>31959</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="H24" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>275</v>
       </c>
       <c r="J24">
@@ -6145,10 +6387,10 @@
       <c r="G25">
         <v>355</v>
       </c>
-      <c r="H25" s="3">
-        <v>30498</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="H25" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>278</v>
       </c>
       <c r="J25">
@@ -6189,10 +6431,10 @@
       <c r="G26">
         <v>355</v>
       </c>
-      <c r="H26" s="3">
-        <v>26115</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="H26" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>280</v>
       </c>
       <c r="J26">
@@ -6233,10 +6475,10 @@
       <c r="G27">
         <v>330</v>
       </c>
-      <c r="H27" s="3">
-        <v>26146</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="H27" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>283</v>
       </c>
       <c r="J27">
@@ -6277,11 +6519,11 @@
       <c r="G28">
         <v>325</v>
       </c>
-      <c r="H28" s="3">
-        <v>15919</v>
-      </c>
-      <c r="I28" s="3">
-        <v>33848</v>
+      <c r="H28" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>474</v>
       </c>
       <c r="J28">
         <v>25.2</v>
@@ -6321,10 +6563,10 @@
       <c r="G29">
         <v>314</v>
       </c>
-      <c r="H29" s="3">
-        <v>23559</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="H29" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>287</v>
       </c>
       <c r="J29">
@@ -6365,10 +6607,10 @@
       <c r="G30">
         <v>313</v>
       </c>
-      <c r="H30" s="3">
-        <v>22494</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="H30" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>290</v>
       </c>
       <c r="J30">
@@ -6409,10 +6651,10 @@
       <c r="G31">
         <v>311</v>
       </c>
-      <c r="H31" s="3">
-        <v>31959</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="H31" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>292</v>
       </c>
       <c r="J31">
@@ -6453,10 +6695,10 @@
       <c r="G32">
         <v>310</v>
       </c>
-      <c r="H32" s="4">
-        <v>44346</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="H32" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>294</v>
       </c>
       <c r="J32">
@@ -6497,10 +6739,10 @@
       <c r="G33">
         <v>309</v>
       </c>
-      <c r="H33" s="4">
-        <v>44370</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="H33" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>296</v>
       </c>
       <c r="J33">
@@ -6541,10 +6783,10 @@
       <c r="G34">
         <v>309</v>
       </c>
-      <c r="H34" s="3">
-        <v>14093</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="H34" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>299</v>
       </c>
       <c r="J34">
@@ -6585,10 +6827,10 @@
       <c r="G35">
         <v>307</v>
       </c>
-      <c r="H35" s="4">
-        <v>44439</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="H35" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>302</v>
       </c>
       <c r="J35">
@@ -6629,10 +6871,10 @@
       <c r="G36">
         <v>306</v>
       </c>
-      <c r="H36" s="3">
-        <v>27211</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="H36" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>287</v>
       </c>
       <c r="J36">
@@ -6673,10 +6915,10 @@
       <c r="G37">
         <v>297</v>
       </c>
-      <c r="H37" s="3">
-        <v>18841</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="H37" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>306</v>
       </c>
       <c r="J37">
@@ -6717,11 +6959,11 @@
       <c r="G38">
         <v>292</v>
       </c>
-      <c r="H38" s="4">
-        <v>44377</v>
-      </c>
-      <c r="I38" s="3">
-        <v>29495</v>
+      <c r="H38" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="J38">
         <v>27.67</v>
@@ -6761,11 +7003,11 @@
       <c r="G39">
         <v>292</v>
       </c>
-      <c r="H39" s="3">
-        <v>19876</v>
-      </c>
-      <c r="I39" s="3">
-        <v>33848</v>
+      <c r="H39" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>474</v>
       </c>
       <c r="J39">
         <v>32.65</v>
@@ -6805,10 +7047,10 @@
       <c r="G40">
         <v>291</v>
       </c>
-      <c r="H40" s="3">
-        <v>35643</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="H40" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>299</v>
       </c>
       <c r="J40">
@@ -6849,10 +7091,10 @@
       <c r="G41">
         <v>266</v>
       </c>
-      <c r="H41" s="3">
-        <v>35977</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="H41" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>311</v>
       </c>
       <c r="J41">
@@ -6893,11 +7135,11 @@
       <c r="G42">
         <v>261</v>
       </c>
-      <c r="H42" s="3">
-        <v>28307</v>
-      </c>
-      <c r="I42" s="3">
-        <v>34669</v>
+      <c r="H42" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="J42">
         <v>34.79</v>
@@ -6937,10 +7179,10 @@
       <c r="G43">
         <v>259</v>
       </c>
-      <c r="H43" s="3">
-        <v>20607</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="H43" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>316</v>
       </c>
       <c r="J43">
@@ -6981,11 +7223,11 @@
       <c r="G44">
         <v>259</v>
       </c>
-      <c r="H44" s="3">
-        <v>13697</v>
-      </c>
-      <c r="I44" s="3">
-        <v>29465</v>
+      <c r="H44" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="J44">
         <v>26.13</v>
@@ -7025,11 +7267,11 @@
       <c r="G45">
         <v>255</v>
       </c>
-      <c r="H45" s="3">
-        <v>18415</v>
-      </c>
-      <c r="I45" s="3">
-        <v>34639</v>
+      <c r="H45" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="J45">
         <v>27.57</v>
@@ -7069,10 +7311,10 @@
       <c r="G46">
         <v>255</v>
       </c>
-      <c r="H46" s="3">
-        <v>23894</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="H46" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>322</v>
       </c>
       <c r="J46">
@@ -7113,11 +7355,11 @@
       <c r="G47">
         <v>252</v>
       </c>
-      <c r="H47" s="3">
-        <v>14427</v>
-      </c>
-      <c r="I47" s="3">
-        <v>35735</v>
+      <c r="H47" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="J47">
         <v>24.84</v>
@@ -7157,10 +7399,10 @@
       <c r="G48">
         <v>249</v>
       </c>
-      <c r="H48" s="3">
-        <v>33817</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="H48" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>228</v>
       </c>
       <c r="J48">
@@ -7201,10 +7443,10 @@
       <c r="G49">
         <v>248</v>
       </c>
-      <c r="H49" s="3">
-        <v>26481</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="H49" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>329</v>
       </c>
       <c r="J49">
@@ -7245,10 +7487,10 @@
       <c r="G50">
         <v>248</v>
       </c>
-      <c r="H50" s="3">
-        <v>22463</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="H50" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>332</v>
       </c>
       <c r="J50">
@@ -7289,11 +7531,11 @@
       <c r="G51">
         <v>246</v>
       </c>
-      <c r="H51" s="3">
-        <v>26146</v>
-      </c>
-      <c r="I51" s="3">
-        <v>33512</v>
+      <c r="H51" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="J51">
         <v>29.78</v>
@@ -7333,10 +7575,10 @@
       <c r="G52">
         <v>242</v>
       </c>
-      <c r="H52" s="3">
-        <v>29068</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="H52" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>336</v>
       </c>
       <c r="J52">
@@ -7377,10 +7619,10 @@
       <c r="G53">
         <v>236</v>
       </c>
-      <c r="H53" s="3">
-        <v>16254</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="H53" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>339</v>
       </c>
       <c r="J53">
@@ -7421,10 +7663,10 @@
       <c r="G54">
         <v>236</v>
       </c>
-      <c r="H54" s="3">
-        <v>31625</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="H54" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>264</v>
       </c>
       <c r="J54">
@@ -7465,10 +7707,10 @@
       <c r="G55">
         <v>236</v>
       </c>
-      <c r="H55" s="3">
-        <v>20699</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="H55" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>343</v>
       </c>
       <c r="J55">
@@ -7509,10 +7751,10 @@
       <c r="G56">
         <v>235</v>
       </c>
-      <c r="H56" s="3">
-        <v>15189</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="H56" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>242</v>
       </c>
       <c r="J56">
@@ -7553,11 +7795,11 @@
       <c r="G57">
         <v>235</v>
       </c>
-      <c r="H57" s="3">
-        <v>26816</v>
-      </c>
-      <c r="I57" s="3">
-        <v>29434</v>
+      <c r="H57" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="J57">
         <v>34.03</v>
@@ -7597,10 +7839,10 @@
       <c r="G58">
         <v>234</v>
       </c>
-      <c r="H58" s="3">
-        <v>16984</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="H58" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J58">
@@ -7641,10 +7883,10 @@
       <c r="G59">
         <v>233</v>
       </c>
-      <c r="H59" s="4">
-        <v>44373</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="H59" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>351</v>
       </c>
       <c r="J59">
@@ -7685,11 +7927,11 @@
       <c r="G60">
         <v>229</v>
       </c>
-      <c r="H60" s="3">
-        <v>14427</v>
-      </c>
-      <c r="I60" s="3">
-        <v>26908</v>
+      <c r="H60" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>482</v>
       </c>
       <c r="J60">
         <v>26.4</v>
@@ -7729,11 +7971,11 @@
       <c r="G61">
         <v>229</v>
       </c>
-      <c r="H61" s="3">
-        <v>15493</v>
-      </c>
-      <c r="I61" s="3">
-        <v>33848</v>
+      <c r="H61" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>474</v>
       </c>
       <c r="J61">
         <v>28.39</v>
@@ -7773,11 +8015,11 @@
       <c r="G62">
         <v>228</v>
       </c>
-      <c r="H62" s="3">
-        <v>14062</v>
-      </c>
-      <c r="I62" s="3">
-        <v>25812</v>
+      <c r="H62" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="J62">
         <v>23.03</v>
@@ -7817,11 +8059,11 @@
       <c r="G63">
         <v>226</v>
       </c>
-      <c r="H63" s="4">
-        <v>44389</v>
-      </c>
-      <c r="I63" s="3">
-        <v>28065</v>
+      <c r="H63" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="J63">
         <v>31.82</v>
@@ -7861,10 +8103,10 @@
       <c r="G64">
         <v>226</v>
       </c>
-      <c r="H64" s="3">
-        <v>21306</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="H64" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>360</v>
       </c>
       <c r="J64">
@@ -7905,10 +8147,10 @@
       <c r="G65">
         <v>224</v>
       </c>
-      <c r="H65" s="4">
-        <v>44368</v>
-      </c>
-      <c r="I65" t="s">
+      <c r="H65" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>363</v>
       </c>
       <c r="J65">
@@ -7949,10 +8191,10 @@
       <c r="G66">
         <v>223</v>
       </c>
-      <c r="H66" s="3">
-        <v>17685</v>
-      </c>
-      <c r="I66" t="s">
+      <c r="H66" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>365</v>
       </c>
       <c r="J66">
@@ -7993,10 +8235,10 @@
       <c r="G67">
         <v>221</v>
       </c>
-      <c r="H67" s="3">
-        <v>17715</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="H67" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>367</v>
       </c>
       <c r="J67">
@@ -8037,10 +8279,10 @@
       <c r="G68">
         <v>221</v>
       </c>
-      <c r="H68" s="3">
-        <v>19876</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="H68" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>370</v>
       </c>
       <c r="J68">
@@ -8081,10 +8323,10 @@
       <c r="G69">
         <v>218</v>
       </c>
-      <c r="H69" s="4">
-        <v>44404</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="H69" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>373</v>
       </c>
       <c r="J69">
@@ -8125,10 +8367,10 @@
       <c r="G70">
         <v>216</v>
       </c>
-      <c r="H70" s="3">
-        <v>14793</v>
-      </c>
-      <c r="I70" t="s">
+      <c r="H70" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>376</v>
       </c>
       <c r="J70">
@@ -8169,11 +8411,11 @@
       <c r="G71">
         <v>216</v>
       </c>
-      <c r="H71" s="3">
-        <v>26816</v>
-      </c>
-      <c r="I71" s="3">
-        <v>26543</v>
+      <c r="H71" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>485</v>
       </c>
       <c r="J71">
         <v>28.14</v>
@@ -8213,10 +8455,10 @@
       <c r="G72">
         <v>215</v>
       </c>
-      <c r="H72" s="3">
-        <v>13332</v>
-      </c>
-      <c r="I72" t="s">
+      <c r="H72" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I72" s="1" t="s">
         <v>379</v>
       </c>
       <c r="J72">
@@ -8257,10 +8499,10 @@
       <c r="G73">
         <v>213</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="1" t="s">
         <v>383</v>
       </c>
       <c r="J73">
@@ -8301,10 +8543,10 @@
       <c r="G74">
         <v>212</v>
       </c>
-      <c r="H74" s="3">
-        <v>24624</v>
-      </c>
-      <c r="I74" t="s">
+      <c r="H74" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>385</v>
       </c>
       <c r="J74">
@@ -8345,10 +8587,10 @@
       <c r="G75">
         <v>212</v>
       </c>
-      <c r="H75" s="3">
-        <v>31990</v>
-      </c>
-      <c r="I75" t="s">
+      <c r="H75" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>388</v>
       </c>
       <c r="J75">
@@ -8389,10 +8631,10 @@
       <c r="G76">
         <v>208</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="1" t="s">
         <v>392</v>
       </c>
       <c r="J76">
@@ -8433,10 +8675,10 @@
       <c r="G77">
         <v>208</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" s="1" t="s">
         <v>396</v>
       </c>
       <c r="J77">
@@ -8477,10 +8719,10 @@
       <c r="G78">
         <v>202</v>
       </c>
-      <c r="H78" s="3">
-        <v>19906</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="H78" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="I78" s="1" t="s">
         <v>399</v>
       </c>
       <c r="J78">
@@ -8521,10 +8763,10 @@
       <c r="G79">
         <v>202</v>
       </c>
-      <c r="H79" s="3">
-        <v>14793</v>
-      </c>
-      <c r="I79" t="s">
+      <c r="H79" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>402</v>
       </c>
       <c r="J79">
@@ -8565,10 +8807,10 @@
       <c r="G80">
         <v>200</v>
       </c>
-      <c r="H80" s="3">
-        <v>16954</v>
-      </c>
-      <c r="I80" t="s">
+      <c r="H80" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="I80" s="1" t="s">
         <v>405</v>
       </c>
       <c r="J80">
